--- a/electrical/USB-PD-Breakout_BOM.xlsx
+++ b/electrical/USB-PD-Breakout_BOM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="USB-PD-Breakout_BOM" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
   <si>
     <t>Reference</t>
   </si>
@@ -27,6 +27,12 @@
     <t xml:space="preserve"> Value</t>
   </si>
   <si>
+    <t xml:space="preserve"> Footprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Datasheet</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Manufacturer</t>
   </si>
   <si>
@@ -39,7 +45,7 @@
     <t xml:space="preserve"> Supplier 1 Part Number</t>
   </si>
   <si>
-    <t xml:space="preserve"> DNP</t>
+    <t xml:space="preserve"> MacroFab Part Number</t>
   </si>
   <si>
     <t>J1</t>
@@ -48,6 +54,9 @@
     <t>USB-C_Female</t>
   </si>
   <si>
+    <t>Reclaimer_Labs:USB-C_Female_105450-0101</t>
+  </si>
+  <si>
     <t>JAE Electronics</t>
   </si>
   <si>
@@ -60,130 +69,127 @@
     <t>670-2846-1-ND</t>
   </si>
   <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>4.7k</t>
+  </si>
+  <si>
+    <t>Capacitors_SMD:C_0603</t>
+  </si>
+  <si>
+    <t>Yageo</t>
+  </si>
+  <si>
+    <t>RC0805FR-074K7L</t>
+  </si>
+  <si>
+    <t>311-4.70KCRCT-ND</t>
+  </si>
+  <si>
+    <t>MF-RES-0603-4.7K</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>470pF</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB471</t>
+  </si>
+  <si>
+    <t>311-1078-1-ND</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>Capacitors_SMD:C_0805</t>
+  </si>
+  <si>
+    <t>MF-CAP-0805-1uF</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>0.1uF</t>
+  </si>
+  <si>
+    <t>MF-CAP-0603-0.1uF</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>Capacitors_SMD:C_1206</t>
+  </si>
+  <si>
+    <t>MF-CAP-1206-10uF</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>FUSB302BMPX</t>
+  </si>
+  <si>
+    <t>Reclaimer_Labs:MLP_14</t>
+  </si>
+  <si>
+    <t>Fairchild</t>
+  </si>
+  <si>
+    <t>FUSB302BMPXCT-ND</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>USB_OTG</t>
+  </si>
+  <si>
+    <t>Reclaimer_Labs:USB_Micro-B_10118193</t>
+  </si>
+  <si>
+    <t>MF-CON-MICROUSB-RIGHT</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>CONN_02X03</t>
+  </si>
+  <si>
+    <t>Socket_Strips:Socket_Strip_Angled_2x03</t>
+  </si>
+  <si>
+    <t>MF-CON-2.54mm-2x3</t>
+  </si>
+  <si>
     <t>J3</t>
   </si>
   <si>
-    <t>USB_A</t>
-  </si>
-  <si>
-    <t>Assmann</t>
-  </si>
-  <si>
-    <t>AU-Y1006-2</t>
-  </si>
-  <si>
-    <t>AE11187-ND</t>
-  </si>
-  <si>
-    <t>J4</t>
-  </si>
-  <si>
-    <t>CONN_01X05</t>
-  </si>
-  <si>
-    <t>DNP</t>
-  </si>
-  <si>
-    <t>4.7k</t>
-  </si>
-  <si>
-    <t>Yageo</t>
-  </si>
-  <si>
-    <t>RC0805FR-074K7L</t>
-  </si>
-  <si>
-    <t>311-4.70KCRCT-ND</t>
-  </si>
-  <si>
-    <t>470pF</t>
-  </si>
-  <si>
-    <t>CC0603KRX7R9BB471</t>
-  </si>
-  <si>
-    <t>311-1078-1-ND</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>1uF</t>
-  </si>
-  <si>
-    <t>CC0805KKX7R7BB105</t>
-  </si>
-  <si>
-    <t>311-1365-1-ND</t>
-  </si>
-  <si>
-    <t>0.1uF</t>
-  </si>
-  <si>
-    <t>CC0603KRX7R7BB104</t>
-  </si>
-  <si>
-    <t>311-1088-1-ND</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>Kemet</t>
-  </si>
-  <si>
-    <t>J2</t>
-  </si>
-  <si>
-    <t>CONN_02X04</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>1M</t>
-  </si>
-  <si>
-    <t>RC0805FR-071ML</t>
-  </si>
-  <si>
-    <t>311-1.00MCRCT-ND</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>FUSB302MPX</t>
-  </si>
-  <si>
-    <t>Fairchild</t>
-  </si>
-  <si>
-    <t>Mouser</t>
-  </si>
-  <si>
-    <t>512-FUSB302MPX</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>R2 R3 R4</t>
-  </si>
-  <si>
-    <t>C2 C4 C7</t>
-  </si>
-  <si>
-    <t>C5 C6</t>
-  </si>
-  <si>
-    <t>311-1900-2-ND</t>
-  </si>
-  <si>
-    <t>CC0805MKX5R6BB226</t>
-  </si>
-  <si>
-    <t>22uF</t>
+    <t>J5</t>
   </si>
 </sst>
 </file>
@@ -252,7 +258,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -645,27 +651,27 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -728,20 +734,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H12" totalsRowShown="0">
-  <autoFilter ref="A1:H12"/>
-  <sortState ref="A2:H15">
-    <sortCondition ref="E1:E15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I16" totalsRowShown="0">
+  <autoFilter ref="A1:I16"/>
+  <sortState ref="A2:I16">
+    <sortCondition ref="A1:A16"/>
   </sortState>
-  <tableColumns count="8">
+  <tableColumns count="9">
     <tableColumn id="1" name="Reference"/>
-    <tableColumn id="8" name="Quantity"/>
     <tableColumn id="2" name=" Value"/>
-    <tableColumn id="3" name=" Manufacturer"/>
-    <tableColumn id="4" name=" Manufacturer Part Number"/>
-    <tableColumn id="5" name=" Supplier 1"/>
-    <tableColumn id="6" name=" Supplier 1 Part Number"/>
-    <tableColumn id="7" name=" DNP"/>
+    <tableColumn id="3" name=" Footprint"/>
+    <tableColumn id="4" name=" Datasheet"/>
+    <tableColumn id="5" name=" Manufacturer"/>
+    <tableColumn id="6" name=" Manufacturer Part Number"/>
+    <tableColumn id="7" name=" Supplier 1"/>
+    <tableColumn id="8" name=" Supplier 1 Part Number"/>
+    <tableColumn id="9" name=" MacroFab Part Number"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -823,6 +830,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -858,6 +882,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1010,282 +1051,334 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" customWidth="1"/>
+    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
         <v>48</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
         <v>43</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="E16" t="s">
         <v>44</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
         <v>45</v>
-      </c>
-      <c r="E8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/electrical/USB-PD-Breakout_BOM.xlsx
+++ b/electrical/USB-PD-Breakout_BOM.xlsx
@@ -1,25 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\USB-PD-Breakout\electrical\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994AB047-E2CE-4D2A-BF01-ACB51F6165E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12345"/>
+    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USB-PD-Breakout_BOM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
   <si>
     <t>Reference</t>
   </si>
@@ -30,9 +39,6 @@
     <t xml:space="preserve"> Footprint</t>
   </si>
   <si>
-    <t xml:space="preserve"> Datasheet</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Manufacturer</t>
   </si>
   <si>
@@ -57,21 +63,9 @@
     <t>Reclaimer_Labs:USB-C_Female_105450-0101</t>
   </si>
   <si>
-    <t>JAE Electronics</t>
-  </si>
-  <si>
-    <t>DX07S024JJ3R1300</t>
-  </si>
-  <si>
     <t>Digikey</t>
   </si>
   <si>
-    <t>670-2846-1-ND</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
     <t>4.7k</t>
   </si>
   <si>
@@ -81,18 +75,9 @@
     <t>Yageo</t>
   </si>
   <si>
-    <t>RC0805FR-074K7L</t>
-  </si>
-  <si>
-    <t>311-4.70KCRCT-ND</t>
-  </si>
-  <si>
     <t>MF-RES-0603-4.7K</t>
   </si>
   <si>
-    <t>C5</t>
-  </si>
-  <si>
     <t>470pF</t>
   </si>
   <si>
@@ -114,9 +99,6 @@
     <t>MF-CAP-0805-1uF</t>
   </si>
   <si>
-    <t>C2</t>
-  </si>
-  <si>
     <t>0.1uF</t>
   </si>
   <si>
@@ -135,15 +117,6 @@
     <t>MF-CAP-1206-10uF</t>
   </si>
   <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
@@ -153,15 +126,9 @@
     <t>Reclaimer_Labs:MLP_14</t>
   </si>
   <si>
-    <t>Fairchild</t>
-  </si>
-  <si>
     <t>FUSB302BMPXCT-ND</t>
   </si>
   <si>
-    <t>C4</t>
-  </si>
-  <si>
     <t>J2</t>
   </si>
   <si>
@@ -174,28 +141,103 @@
     <t>MF-CON-MICROUSB-RIGHT</t>
   </si>
   <si>
+    <t>CONN_02X03</t>
+  </si>
+  <si>
+    <t>MF-CON-2.54mm-2x3</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>C5, C6</t>
+  </si>
+  <si>
+    <t>R1, R2, R3</t>
+  </si>
+  <si>
+    <t>C2, C4</t>
+  </si>
+  <si>
+    <t>CL31A106KAHNNNE</t>
+  </si>
+  <si>
+    <t>1276-1075-1-ND</t>
+  </si>
+  <si>
+    <t>Samsung Electro-Mechanics</t>
+  </si>
+  <si>
+    <t>CL10B104KB8NNNC</t>
+  </si>
+  <si>
+    <t>1276-1000-1-ND</t>
+  </si>
+  <si>
+    <t>CL21B105KOFNNNG</t>
+  </si>
+  <si>
+    <t>1276-6471-1-ND</t>
+  </si>
+  <si>
+    <t>10118193-0001LF</t>
+  </si>
+  <si>
+    <t>609-4616-1-ND</t>
+  </si>
+  <si>
+    <t>Amphenol ICC (FCI)</t>
+  </si>
+  <si>
+    <t>609-3234-ND</t>
+  </si>
+  <si>
+    <t>67997-206HLF</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>Socket_Strips:Socket_Strip_Straight_2x03</t>
+  </si>
+  <si>
+    <t>77311-818-08LF</t>
+  </si>
+  <si>
+    <t>609-5130-ND</t>
+  </si>
+  <si>
+    <t>MF-CON-2.54mm-01x08</t>
+  </si>
+  <si>
     <t>J4</t>
   </si>
   <si>
-    <t>CONN_02X03</t>
-  </si>
-  <si>
-    <t>Socket_Strips:Socket_Strip_Angled_2x03</t>
-  </si>
-  <si>
-    <t>MF-CON-2.54mm-2x3</t>
-  </si>
-  <si>
-    <t>J3</t>
-  </si>
-  <si>
-    <t>J5</t>
+    <t>Socket_Strips:Socket_Strip_Straight_1x08</t>
+  </si>
+  <si>
+    <t>Molex</t>
+  </si>
+  <si>
+    <t>1054500101</t>
+  </si>
+  <si>
+    <t>RC0603FR-074K7L</t>
+  </si>
+  <si>
+    <t>311-4.70KHRCT-ND</t>
+  </si>
+  <si>
+    <t>WM12856CT-ND</t>
+  </si>
+  <si>
+    <t>ON Semiconductor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -673,8 +715,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -734,21 +777,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I16" totalsRowShown="0">
-  <autoFilter ref="A1:I16"/>
-  <sortState ref="A2:I16">
-    <sortCondition ref="A1:A16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I11" totalsRowShown="0">
+  <autoFilter ref="A1:I11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I11">
+    <sortCondition ref="B1:B11"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="Reference"/>
-    <tableColumn id="2" name=" Value"/>
-    <tableColumn id="3" name=" Footprint"/>
-    <tableColumn id="4" name=" Datasheet"/>
-    <tableColumn id="5" name=" Manufacturer"/>
-    <tableColumn id="6" name=" Manufacturer Part Number"/>
-    <tableColumn id="7" name=" Supplier 1"/>
-    <tableColumn id="8" name=" Supplier 1 Part Number"/>
-    <tableColumn id="9" name=" MacroFab Part Number"/>
+    <tableColumn id="10" xr3:uid="{7D4F62B0-8D9D-411D-84BE-EF595352B528}" name="Quantity"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Reference"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name=" Value"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name=" Footprint"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name=" Manufacturer"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name=" Manufacturer Part Number"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name=" Supplier 1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name=" Supplier 1 Part Number"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name=" MacroFab Part Number"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1050,335 +1093,332 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E2" sqref="E2:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" customWidth="1"/>
-    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" customWidth="1"/>
+    <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>34</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>31</v>
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>27</v>
+      <c r="A4">
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>49</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>46</v>
+      <c r="A5">
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
         <v>18</v>
-      </c>
-      <c r="I5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>23</v>
+      <c r="A6">
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
+        <v>62</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>38</v>
+      <c r="A7">
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
+        <v>52</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>51</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
+      <c r="A8">
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>53</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>47</v>
+      <c r="A9">
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>55</v>
+      <c r="A10">
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>65</v>
       </c>
       <c r="I10" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>51</v>
+      <c r="A11">
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" t="s">
-        <v>45</v>
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
